--- a/public/report.xlsx
+++ b/public/report.xlsx
@@ -101,7 +101,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="A1" s="0" t="inlineStr">
         <is>
           <t>Account Number</t>
@@ -167,18 +167,8 @@
           <t>Variance</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
-        <is>
-          <t>Last_CTD</t>
-        </is>
-      </c>
-      <c r="O1" s="0" t="inlineStr">
-        <is>
-          <t>Last_EFC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -196,13 +186,11 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1,100</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -221,13 +209,11 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>1,107</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -290,21 +276,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>1,108</t>
+          <t>1108</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -367,21 +343,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>1,199</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -444,18 +410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
@@ -517,21 +473,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N7" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -550,13 +496,11 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>1,201</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -619,21 +563,11 @@
           <t>-38,000</t>
         </is>
       </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>1,203</t>
+          <t>1203</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -696,21 +630,11 @@
           <t>-3,500</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>1,204</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -773,21 +697,11 @@
           <t>29,800</t>
         </is>
       </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>1,299</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -850,18 +764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
@@ -923,21 +827,11 @@
           <t>-11,700</t>
         </is>
       </c>
-      <c r="N13" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>1,300</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -956,13 +850,11 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>1,301</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1025,21 +917,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>1,399</t>
+          <t>1399</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1102,18 +984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
@@ -1175,21 +1047,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N17" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>1,400</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -1208,13 +1070,11 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>1,401</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1277,21 +1137,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>1,404</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1354,21 +1204,11 @@
           <t>-14,112</t>
         </is>
       </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>1,410</t>
+          <t>1410</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1431,21 +1271,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>1,411</t>
+          <t>1411</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1508,21 +1338,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>1,420</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1585,21 +1405,11 @@
           <t>-8,050</t>
         </is>
       </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>1,489</t>
+          <t>1489</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1662,21 +1472,11 @@
           <t>-250</t>
         </is>
       </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>1,493</t>
+          <t>1493</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1739,21 +1539,11 @@
           <t>-2,100</t>
         </is>
       </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>1,499</t>
+          <t>1499</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1816,18 +1606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
@@ -1889,21 +1669,11 @@
           <t>-24,512</t>
         </is>
       </c>
-      <c r="N27" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O27" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>1,500</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1922,13 +1692,11 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>1,515</t>
+          <t>1515</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1991,18 +1759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
@@ -2064,18 +1822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N30" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O30" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
@@ -2137,18 +1885,8 @@
           <t>-36,212</t>
         </is>
       </c>
-      <c r="N31" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O31" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
@@ -2166,13 +1904,11 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -2191,13 +1927,11 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>2,005</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2260,21 +1994,11 @@
           <t>13,448</t>
         </is>
       </c>
-      <c r="N35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>2,005</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2337,21 +2061,11 @@
           <t>13,448</t>
         </is>
       </c>
-      <c r="N36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>2,009</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2414,21 +2128,11 @@
           <t>10,836</t>
         </is>
       </c>
-      <c r="N37" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O37" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>2,010</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2491,21 +2195,11 @@
           <t>12,425</t>
         </is>
       </c>
-      <c r="N38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>2,013</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2568,21 +2262,11 @@
           <t>2,700</t>
         </is>
       </c>
-      <c r="N39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>2,014</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2645,21 +2329,11 @@
           <t>6,650</t>
         </is>
       </c>
-      <c r="N40" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O40" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>2,017</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2722,21 +2396,11 @@
           <t>-1,304</t>
         </is>
       </c>
-      <c r="N41" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O41" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>2,018</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2799,21 +2463,11 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="N42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>2,019</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2876,21 +2530,11 @@
           <t>-3,050</t>
         </is>
       </c>
-      <c r="N43" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O43" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>2,020</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2953,21 +2597,11 @@
           <t>-3,312</t>
         </is>
       </c>
-      <c r="N44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>2,090</t>
+          <t>2090</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -3030,21 +2664,11 @@
           <t>175</t>
         </is>
       </c>
-      <c r="N45" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O45" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2,099</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -3107,18 +2731,8 @@
           <t>10,409</t>
         </is>
       </c>
-      <c r="N46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
@@ -3180,21 +2794,11 @@
           <t>62,395</t>
         </is>
       </c>
-      <c r="N47" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O47" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2,100</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
@@ -3213,13 +2817,11 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="1:15">
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>2,102</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -3282,21 +2884,11 @@
           <t>-9,032</t>
         </is>
       </c>
-      <c r="N49" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O49" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>2,108</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -3359,21 +2951,11 @@
           <t>-1,224</t>
         </is>
       </c>
-      <c r="N50" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O50" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>2,110</t>
+          <t>2110</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -3436,21 +3018,11 @@
           <t>-198</t>
         </is>
       </c>
-      <c r="N51" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O51" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>2,199</t>
+          <t>2199</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -3513,18 +3085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N52" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O52" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="inlineStr">
         <is>
@@ -3586,21 +3148,11 @@
           <t>-10,454</t>
         </is>
       </c>
-      <c r="N53" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O53" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2,200</t>
+          <t>2200</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
@@ -3619,13 +3171,11 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-    </row>
-    <row r="55" spans="1:15">
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>2,201</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -3688,21 +3238,11 @@
           <t>-12,000</t>
         </is>
       </c>
-      <c r="N55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>2,202</t>
+          <t>2202</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -3765,21 +3305,11 @@
           <t>4,547</t>
         </is>
       </c>
-      <c r="N56" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O56" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>2,290</t>
+          <t>2290</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -3842,21 +3372,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N57" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O57" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>2,293</t>
+          <t>2293</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -3919,21 +3439,11 @@
           <t>9,157</t>
         </is>
       </c>
-      <c r="N58" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O58" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>2,294</t>
+          <t>2294</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -3996,21 +3506,11 @@
           <t>-283</t>
         </is>
       </c>
-      <c r="N59" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O59" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>2,299</t>
+          <t>2299</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -4073,18 +3573,8 @@
           <t>-6,281</t>
         </is>
       </c>
-      <c r="N60" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O60" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
@@ -4146,21 +3636,11 @@
           <t>-4,860</t>
         </is>
       </c>
-      <c r="N61" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O61" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2,400</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
@@ -4179,13 +3659,11 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-    </row>
-    <row r="63" spans="1:15">
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>2,401</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -4248,21 +3726,11 @@
           <t>1,375</t>
         </is>
       </c>
-      <c r="N63" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O63" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>2,402</t>
+          <t>2402</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -4325,21 +3793,11 @@
           <t>2,249</t>
         </is>
       </c>
-      <c r="N64" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O64" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>2,405</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -4402,21 +3860,11 @@
           <t>-7,379</t>
         </is>
       </c>
-      <c r="N65" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O65" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>2,490</t>
+          <t>2490</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -4479,21 +3927,11 @@
           <t>410</t>
         </is>
       </c>
-      <c r="N66" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O66" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>2,493</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -4556,21 +3994,11 @@
           <t>-1,223</t>
         </is>
       </c>
-      <c r="N67" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O67" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>2,494</t>
+          <t>2494</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -4633,21 +4061,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N68" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O68" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>2,499</t>
+          <t>2499</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -4710,18 +4128,8 @@
           <t>-369</t>
         </is>
       </c>
-      <c r="N69" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O69" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="inlineStr">
         <is>
@@ -4783,21 +4191,11 @@
           <t>-4,937</t>
         </is>
       </c>
-      <c r="N70" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O70" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2,500</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
@@ -4816,13 +4214,11 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="1:15">
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>2,501</t>
+          <t>2501</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -4885,21 +4281,11 @@
           <t>-5,197</t>
         </is>
       </c>
-      <c r="N72" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O72" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>2,593</t>
+          <t>2593</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -4962,21 +4348,11 @@
           <t>-6,952</t>
         </is>
       </c>
-      <c r="N73" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O73" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>2,594</t>
+          <t>2594</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -5039,21 +4415,11 @@
           <t>2,000</t>
         </is>
       </c>
-      <c r="N74" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O74" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>2,599</t>
+          <t>2599</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -5116,18 +4482,8 @@
           <t>-4,891</t>
         </is>
       </c>
-      <c r="N75" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O75" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="inlineStr">
         <is>
@@ -5189,21 +4545,11 @@
           <t>-15,040</t>
         </is>
       </c>
-      <c r="N76" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O76" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2,600</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
@@ -5222,13 +4568,11 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="1:15">
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>2,601</t>
+          <t>2601</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -5291,21 +4635,11 @@
           <t>-3,050</t>
         </is>
       </c>
-      <c r="N78" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O78" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>2,602</t>
+          <t>2602</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -5368,21 +4702,11 @@
           <t>-4,417</t>
         </is>
       </c>
-      <c r="N79" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O79" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>2,616</t>
+          <t>2616</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -5445,21 +4769,11 @@
           <t>-828</t>
         </is>
       </c>
-      <c r="N80" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O80" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>2,699</t>
+          <t>2699</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -5522,18 +4836,8 @@
           <t>-3,632</t>
         </is>
       </c>
-      <c r="N81" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O81" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="inlineStr">
         <is>
@@ -5595,21 +4899,11 @@
           <t>-11,927</t>
         </is>
       </c>
-      <c r="N82" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O82" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2,700</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr">
@@ -5628,13 +4922,11 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-    </row>
-    <row r="84" spans="1:15">
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>2,701</t>
+          <t>2701</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -5697,21 +4989,11 @@
           <t>-546</t>
         </is>
       </c>
-      <c r="N84" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O84" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>2,703</t>
+          <t>2703</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -5774,21 +5056,11 @@
           <t>-3,894</t>
         </is>
       </c>
-      <c r="N85" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O85" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>2,707</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -5851,21 +5123,11 @@
           <t>7,641</t>
         </is>
       </c>
-      <c r="N86" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O86" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>2,725</t>
+          <t>2725</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -5928,21 +5190,11 @@
           <t>-1,050</t>
         </is>
       </c>
-      <c r="N87" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O87" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>2,790</t>
+          <t>2790</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -6005,21 +5257,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N88" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O88" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>2,793</t>
+          <t>2793</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -6082,21 +5324,11 @@
           <t>-3,050</t>
         </is>
       </c>
-      <c r="N89" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O89" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>2794</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -6159,21 +5391,11 @@
           <t>2,500</t>
         </is>
       </c>
-      <c r="N90" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O90" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>2,799</t>
+          <t>2799</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -6236,18 +5458,8 @@
           <t>1,670</t>
         </is>
       </c>
-      <c r="N91" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O91" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="inlineStr">
         <is>
@@ -6309,21 +5521,11 @@
           <t>3,271</t>
         </is>
       </c>
-      <c r="N92" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O92" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2,800</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="B93" s="1" t="inlineStr">
@@ -6342,13 +5544,11 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-    </row>
-    <row r="94" spans="1:15">
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>2,801</t>
+          <t>2801</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -6411,21 +5611,11 @@
           <t>2,098</t>
         </is>
       </c>
-      <c r="N94" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O94" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>2,802</t>
+          <t>2802</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -6488,21 +5678,11 @@
           <t>5,053</t>
         </is>
       </c>
-      <c r="N95" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O95" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>2,804</t>
+          <t>2804</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -6565,21 +5745,11 @@
           <t>1,949</t>
         </is>
       </c>
-      <c r="N96" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O96" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>2,806</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -6642,21 +5812,11 @@
           <t>-1,350</t>
         </is>
       </c>
-      <c r="N97" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O97" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>2,890</t>
+          <t>2890</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -6719,21 +5879,11 @@
           <t>350</t>
         </is>
       </c>
-      <c r="N98" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O98" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>2,893</t>
+          <t>2893</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -6796,21 +5946,11 @@
           <t>394</t>
         </is>
       </c>
-      <c r="N99" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O99" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>2,899</t>
+          <t>2899</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -6873,18 +6013,8 @@
           <t>3,272</t>
         </is>
       </c>
-      <c r="N100" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O100" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="inlineStr">
         <is>
@@ -6946,21 +6076,11 @@
           <t>11,766</t>
         </is>
       </c>
-      <c r="N101" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O101" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2,900</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="B102" s="1" t="inlineStr">
@@ -6979,13 +6099,11 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-    </row>
-    <row r="103" spans="1:15">
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>2,901</t>
+          <t>2901</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -7048,21 +6166,11 @@
           <t>3,970</t>
         </is>
       </c>
-      <c r="N103" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O103" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>2,903</t>
+          <t>2903</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -7125,21 +6233,11 @@
           <t>-2,354</t>
         </is>
       </c>
-      <c r="N104" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O104" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>2,909</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -7202,21 +6300,11 @@
           <t>779</t>
         </is>
       </c>
-      <c r="N105" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O105" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>2,990</t>
+          <t>2990</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -7279,21 +6367,11 @@
           <t>-40</t>
         </is>
       </c>
-      <c r="N106" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O106" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>2,993</t>
+          <t>2993</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -7356,21 +6434,11 @@
           <t>-5,040</t>
         </is>
       </c>
-      <c r="N107" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O107" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>2,994</t>
+          <t>2994</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -7433,21 +6501,11 @@
           <t>-794</t>
         </is>
       </c>
-      <c r="N108" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O108" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>2,996</t>
+          <t>2996</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -7510,21 +6568,11 @@
           <t>4,124</t>
         </is>
       </c>
-      <c r="N109" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O109" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>2,999</t>
+          <t>2999</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -7587,18 +6635,8 @@
           <t>800</t>
         </is>
       </c>
-      <c r="N110" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O110" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="inlineStr">
         <is>
@@ -7660,21 +6698,11 @@
           <t>1,445</t>
         </is>
       </c>
-      <c r="N111" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O111" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="B112" s="1" t="inlineStr">
@@ -7693,13 +6721,11 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-    </row>
-    <row r="113" spans="1:15">
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>3,001</t>
+          <t>3001</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -7762,21 +6788,11 @@
           <t>576</t>
         </is>
       </c>
-      <c r="N113" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O113" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>3,002</t>
+          <t>3002</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -7839,21 +6855,11 @@
           <t>2,082</t>
         </is>
       </c>
-      <c r="N114" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O114" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>3,003</t>
+          <t>3003</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -7916,21 +6922,11 @@
           <t>-2,722</t>
         </is>
       </c>
-      <c r="N115" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O115" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>3,090</t>
+          <t>3090</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -7993,21 +6989,11 @@
           <t>151</t>
         </is>
       </c>
-      <c r="N116" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O116" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>3,091</t>
+          <t>3091</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -8070,21 +7056,11 @@
           <t>-1,200</t>
         </is>
       </c>
-      <c r="N117" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O117" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>3,093</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -8147,21 +7123,11 @@
           <t>-2,864</t>
         </is>
       </c>
-      <c r="N118" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O118" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>3,094</t>
+          <t>3094</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -8224,21 +7190,11 @@
           <t>604</t>
         </is>
       </c>
-      <c r="N119" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O119" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>3,098</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -8301,21 +7257,11 @@
           <t>800</t>
         </is>
       </c>
-      <c r="N120" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O120" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>3,099</t>
+          <t>3099</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -8378,18 +7324,8 @@
           <t>-1,369</t>
         </is>
       </c>
-      <c r="N121" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O121" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="inlineStr">
         <is>
@@ -8451,21 +7387,11 @@
           <t>-3,942</t>
         </is>
       </c>
-      <c r="N122" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O122" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>3,100</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="B123" s="1" t="inlineStr">
@@ -8484,13 +7410,11 @@
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
-    </row>
-    <row r="124" spans="1:15">
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>3,101</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -8553,21 +7477,11 @@
           <t>1,600</t>
         </is>
       </c>
-      <c r="N124" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O124" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>3,102</t>
+          <t>3102</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -8630,21 +7544,11 @@
           <t>5,591</t>
         </is>
       </c>
-      <c r="N125" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O125" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>3,104</t>
+          <t>3104</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -8707,21 +7611,11 @@
           <t>4,962</t>
         </is>
       </c>
-      <c r="N126" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O126" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>3,106</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -8784,21 +7678,11 @@
           <t>4,412</t>
         </is>
       </c>
-      <c r="N127" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O127" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>3,108</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -8861,21 +7745,11 @@
           <t>733</t>
         </is>
       </c>
-      <c r="N128" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O128" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>3,190</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
@@ -8938,21 +7812,11 @@
           <t>-1,410</t>
         </is>
       </c>
-      <c r="N129" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O129" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>3,193</t>
+          <t>3193</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
@@ -9015,21 +7879,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N130" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O130" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>3,194</t>
+          <t>3194</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
@@ -9092,21 +7946,11 @@
           <t>1,460</t>
         </is>
       </c>
-      <c r="N131" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O131" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>3,199</t>
+          <t>3199</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
@@ -9169,18 +8013,8 @@
           <t>6,619</t>
         </is>
       </c>
-      <c r="N132" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O132" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="inlineStr">
         <is>
@@ -9242,21 +8076,11 @@
           <t>23,967</t>
         </is>
       </c>
-      <c r="N133" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O133" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>3,200</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="B134" s="1" t="inlineStr">
@@ -9275,13 +8099,11 @@
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
-    </row>
-    <row r="135" spans="1:15">
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>3,201</t>
+          <t>3201</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -9344,21 +8166,11 @@
           <t>958</t>
         </is>
       </c>
-      <c r="N135" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O135" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>3,202</t>
+          <t>3202</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -9421,21 +8233,11 @@
           <t>2,626</t>
         </is>
       </c>
-      <c r="N136" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O136" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>3,203</t>
+          <t>3203</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -9498,21 +8300,11 @@
           <t>-790</t>
         </is>
       </c>
-      <c r="N137" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O137" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>3,292</t>
+          <t>3292</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -9575,21 +8367,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N138" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O138" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>3,293</t>
+          <t>3293</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -9652,21 +8434,11 @@
           <t>2,750</t>
         </is>
       </c>
-      <c r="N139" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O139" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>3,294</t>
+          <t>3294</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
@@ -9729,21 +8501,11 @@
           <t>656</t>
         </is>
       </c>
-      <c r="N140" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O140" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>3,298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -9806,21 +8568,11 @@
           <t>400</t>
         </is>
       </c>
-      <c r="N141" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O141" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>3,299</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -9883,18 +8635,8 @@
           <t>1,765</t>
         </is>
       </c>
-      <c r="N142" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O142" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="inlineStr">
         <is>
@@ -9956,21 +8698,11 @@
           <t>8,365</t>
         </is>
       </c>
-      <c r="N143" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O143" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>3,400</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="B144" s="1" t="inlineStr">
@@ -9989,13 +8721,11 @@
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
-    </row>
-    <row r="145" spans="1:15">
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>3,401</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -10058,21 +8788,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N145" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O145" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>3,402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -10135,21 +8855,11 @@
           <t>2,869</t>
         </is>
       </c>
-      <c r="N146" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O146" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>3,403</t>
+          <t>3403</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
@@ -10212,21 +8922,11 @@
           <t>2,287</t>
         </is>
       </c>
-      <c r="N147" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O147" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>3,405</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -10289,21 +8989,11 @@
           <t>1,100</t>
         </is>
       </c>
-      <c r="N148" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O148" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>3,406</t>
+          <t>3406</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -10366,21 +9056,11 @@
           <t>2,000</t>
         </is>
       </c>
-      <c r="N149" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O149" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>3,407</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -10443,21 +9123,11 @@
           <t>-17,000</t>
         </is>
       </c>
-      <c r="N150" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O150" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>3,408</t>
+          <t>3408</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -10520,21 +9190,11 @@
           <t>-1,468</t>
         </is>
       </c>
-      <c r="N151" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O151" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>3,409</t>
+          <t>3409</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -10597,21 +9257,11 @@
           <t>-7,500</t>
         </is>
       </c>
-      <c r="N152" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O152" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>3,410</t>
+          <t>3410</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -10674,21 +9324,11 @@
           <t>-2,547</t>
         </is>
       </c>
-      <c r="N153" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O153" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>3,412</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -10751,21 +9391,11 @@
           <t>805</t>
         </is>
       </c>
-      <c r="N154" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O154" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>3,499</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -10828,18 +9458,8 @@
           <t>6,644</t>
         </is>
       </c>
-      <c r="N155" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O155" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="inlineStr">
         <is>
@@ -10901,21 +9521,11 @@
           <t>-12,810</t>
         </is>
       </c>
-      <c r="N156" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O156" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>3,600</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="B157" s="1" t="inlineStr">
@@ -10934,13 +9544,11 @@
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-    </row>
-    <row r="158" spans="1:15">
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>3,602</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
@@ -11003,21 +9611,11 @@
           <t>-3,723</t>
         </is>
       </c>
-      <c r="N158" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O158" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>3,605</t>
+          <t>3605</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
@@ -11080,21 +9678,11 @@
           <t>-12,965</t>
         </is>
       </c>
-      <c r="N159" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O159" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>3,608</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
@@ -11157,21 +9745,11 @@
           <t>916</t>
         </is>
       </c>
-      <c r="N160" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O160" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>3,630</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -11234,21 +9812,11 @@
           <t>2,000</t>
         </is>
       </c>
-      <c r="N161" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O161" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>3,635</t>
+          <t>3635</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
@@ -11311,21 +9879,11 @@
           <t>-1,748</t>
         </is>
       </c>
-      <c r="N162" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O162" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="163" spans="1:15">
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>3,683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -11388,21 +9946,11 @@
           <t>-14,444</t>
         </is>
       </c>
-      <c r="N163" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O163" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="164" spans="1:15">
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>3,699</t>
+          <t>3699</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -11465,18 +10013,8 @@
           <t>-7,458</t>
         </is>
       </c>
-      <c r="N164" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O164" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="165" spans="1:15">
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="inlineStr">
         <is>
@@ -11538,21 +10076,11 @@
           <t>-37,422</t>
         </is>
       </c>
-      <c r="N165" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O165" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="166" spans="1:15">
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="B166" s="1" t="inlineStr">
@@ -11571,13 +10099,11 @@
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-    </row>
-    <row r="167" spans="1:15">
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>4,020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
@@ -11640,21 +10166,11 @@
           <t>1,800</t>
         </is>
       </c>
-      <c r="N167" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O167" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="168" spans="1:15">
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>4,021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
@@ -11717,21 +10233,11 @@
           <t>-5,000</t>
         </is>
       </c>
-      <c r="N168" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O168" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="169" spans="1:15">
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>4,022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
@@ -11794,21 +10300,11 @@
           <t>-28,698</t>
         </is>
       </c>
-      <c r="N169" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O169" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="170" spans="1:15">
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>4,025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
@@ -11871,21 +10367,11 @@
           <t>-10,000</t>
         </is>
       </c>
-      <c r="N170" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O170" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="171" spans="1:15">
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>4,027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
@@ -11948,21 +10434,11 @@
           <t>-4,739</t>
         </is>
       </c>
-      <c r="N171" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O171" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="172" spans="1:15">
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>4,029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
@@ -12025,21 +10501,11 @@
           <t>-1,590</t>
         </is>
       </c>
-      <c r="N172" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O172" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="173" spans="1:15">
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>4,031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -12102,21 +10568,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N173" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O173" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="174" spans="1:15">
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>4,032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -12179,21 +10635,11 @@
           <t>-5,000</t>
         </is>
       </c>
-      <c r="N174" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O174" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="175" spans="1:15">
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>4,033</t>
+          <t>4033</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -12256,21 +10702,11 @@
           <t>-5,000</t>
         </is>
       </c>
-      <c r="N175" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O175" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="176" spans="1:15">
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>4,034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
@@ -12333,21 +10769,11 @@
           <t>-6,000</t>
         </is>
       </c>
-      <c r="N176" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O176" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>4,035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
@@ -12410,21 +10836,11 @@
           <t>5,000</t>
         </is>
       </c>
-      <c r="N177" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O177" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="178" spans="1:15">
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>4,036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
@@ -12487,21 +10903,11 @@
           <t>6,000</t>
         </is>
       </c>
-      <c r="N178" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O178" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="179" spans="1:15">
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>4,099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
@@ -12564,18 +10970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N179" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O179" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="inlineStr">
         <is>
@@ -12637,18 +11033,8 @@
           <t>-53,227</t>
         </is>
       </c>
-      <c r="N180" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O180" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="inlineStr">
         <is>
@@ -12710,18 +11096,8 @@
           <t>-43,410</t>
         </is>
       </c>
-      <c r="N181" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O181" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="183" spans="1:15">
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="inlineStr">
         <is>
@@ -12739,13 +11115,11 @@
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-    </row>
-    <row r="184" spans="1:15">
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="B184" s="1" t="inlineStr">
@@ -12764,13 +11138,11 @@
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-    </row>
-    <row r="185" spans="1:15">
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>5,001</t>
+          <t>5001</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
@@ -12833,21 +11205,11 @@
           <t>32,450</t>
         </is>
       </c>
-      <c r="N185" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O185" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="186" spans="1:15">
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>5,002</t>
+          <t>5002</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
@@ -12910,21 +11272,11 @@
           <t>5,040</t>
         </is>
       </c>
-      <c r="N186" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O186" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="187" spans="1:15">
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>5,007</t>
+          <t>5007</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
@@ -12987,21 +11339,11 @@
           <t>14,000</t>
         </is>
       </c>
-      <c r="N187" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O187" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="188" spans="1:15">
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>5,014</t>
+          <t>5014</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
@@ -13064,21 +11406,11 @@
           <t>10,400</t>
         </is>
       </c>
-      <c r="N188" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O188" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="189" spans="1:15">
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>5,020</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
@@ -13141,21 +11473,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N189" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O189" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="190" spans="1:15">
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>5,093</t>
+          <t>5093</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
@@ -13218,21 +11540,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N190" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O190" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="191" spans="1:15">
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>5,099</t>
+          <t>5099</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -13295,18 +11607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N191" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O191" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="192" spans="1:15">
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="inlineStr">
         <is>
@@ -13368,21 +11670,11 @@
           <t>61,890</t>
         </is>
       </c>
-      <c r="N192" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O192" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="193" spans="1:15">
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>5,100</t>
+          <t>5100</t>
         </is>
       </c>
       <c r="B193" s="1" t="inlineStr">
@@ -13401,13 +11693,11 @@
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
-      <c r="N193" s="1"/>
-      <c r="O193" s="1"/>
-    </row>
-    <row r="194" spans="1:15">
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>5,175</t>
+          <t>5175</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
@@ -13470,21 +11760,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N194" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O194" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="195" spans="1:15">
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>5,191</t>
+          <t>5191</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
@@ -13547,21 +11827,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N195" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O195" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="196" spans="1:15">
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>5,199</t>
+          <t>5199</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -13624,18 +11894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N196" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O196" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="197" spans="1:15">
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="inlineStr">
         <is>
@@ -13697,21 +11957,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N197" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O197" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="198" spans="1:15">
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>5,200</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="B198" s="1" t="inlineStr">
@@ -13730,13 +11980,11 @@
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
-      <c r="N198" s="1"/>
-      <c r="O198" s="1"/>
-    </row>
-    <row r="199" spans="1:15">
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>5,207</t>
+          <t>5207</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -13799,18 +12047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N199" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O199" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="200" spans="1:15">
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" s="3"/>
       <c r="B200" s="3" t="inlineStr">
         <is>
@@ -13872,21 +12110,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N200" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O200" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="201" spans="1:15">
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>5,400</t>
+          <t>5400</t>
         </is>
       </c>
       <c r="B201" s="1" t="inlineStr">
@@ -13905,13 +12133,11 @@
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
-      <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
-    </row>
-    <row r="202" spans="1:15">
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>5,402</t>
+          <t>5402</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
@@ -13974,18 +12200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N202" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O202" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="203" spans="1:15">
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="inlineStr">
         <is>
@@ -14047,21 +12263,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N203" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O203" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="204" spans="1:15">
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>5,500</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="B204" s="1" t="inlineStr">
@@ -14080,13 +12286,11 @@
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
-      <c r="N204" s="1"/>
-      <c r="O204" s="1"/>
-    </row>
-    <row r="205" spans="1:15">
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>5,502</t>
+          <t>5502</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
@@ -14149,21 +12353,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N205" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O205" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="206" spans="1:15">
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>5,510</t>
+          <t>5510</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -14226,21 +12420,11 @@
           <t>2,400</t>
         </is>
       </c>
-      <c r="N206" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O206" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="207" spans="1:15">
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>5,580</t>
+          <t>5580</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -14303,18 +12487,8 @@
           <t>-6,220</t>
         </is>
       </c>
-      <c r="N207" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O207" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="208" spans="1:15">
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="inlineStr">
         <is>
@@ -14376,18 +12550,8 @@
           <t>-3,820</t>
         </is>
       </c>
-      <c r="N208" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O208" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="209" spans="1:15">
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="inlineStr">
         <is>
@@ -14449,18 +12613,8 @@
           <t>58,070</t>
         </is>
       </c>
-      <c r="N209" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O209" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="211" spans="1:15">
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="inlineStr">
         <is>
@@ -14478,13 +12632,11 @@
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
-    </row>
-    <row r="212" spans="1:15">
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="B212" s="1" t="inlineStr">
@@ -14503,13 +12655,11 @@
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
-      <c r="N212" s="1"/>
-      <c r="O212" s="1"/>
-    </row>
-    <row r="213" spans="1:15">
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>7,005</t>
+          <t>7005</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
@@ -14572,21 +12722,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N213" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O213" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="214" spans="1:15">
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>7,007</t>
+          <t>7007</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
@@ -14649,21 +12789,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N214" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O214" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="215" spans="1:15">
+    </row>
+    <row r="215" spans="1:13">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>7,010</t>
+          <t>7010</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
@@ -14726,21 +12856,11 @@
           <t>-68</t>
         </is>
       </c>
-      <c r="N215" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O215" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="216" spans="1:15">
+    </row>
+    <row r="216" spans="1:13">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>7,030</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
@@ -14803,21 +12923,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N216" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O216" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="217" spans="1:15">
+    </row>
+    <row r="217" spans="1:13">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>7,042</t>
+          <t>7042</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
@@ -14880,21 +12990,11 @@
           <t>-185</t>
         </is>
       </c>
-      <c r="N217" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O217" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="218" spans="1:15">
+    </row>
+    <row r="218" spans="1:13">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>7,093</t>
+          <t>7093</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -14957,21 +13057,11 @@
           <t>-700</t>
         </is>
       </c>
-      <c r="N218" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O218" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="219" spans="1:15">
+    </row>
+    <row r="219" spans="1:13">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>7,094</t>
+          <t>7094</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
@@ -15034,18 +13124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N219" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O219" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="220" spans="1:15">
+    </row>
+    <row r="220" spans="1:13">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="inlineStr">
         <is>
@@ -15107,21 +13187,11 @@
           <t>-953</t>
         </is>
       </c>
-      <c r="N220" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O220" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="221" spans="1:15">
+    </row>
+    <row r="221" spans="1:13">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>7,200</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="B221" s="1" t="inlineStr">
@@ -15140,13 +13210,11 @@
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
-    </row>
-    <row r="222" spans="1:15">
+    </row>
+    <row r="222" spans="1:13">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>7,201</t>
+          <t>7201</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -15209,21 +13277,11 @@
           <t>-819</t>
         </is>
       </c>
-      <c r="N222" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O222" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="223" spans="1:15">
+    </row>
+    <row r="223" spans="1:13">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>7,210</t>
+          <t>7210</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
@@ -15286,18 +13344,8 @@
           <t>-130</t>
         </is>
       </c>
-      <c r="N223" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O223" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="224" spans="1:15">
+    </row>
+    <row r="224" spans="1:13">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="inlineStr">
         <is>
@@ -15359,21 +13407,11 @@
           <t>-949</t>
         </is>
       </c>
-      <c r="N224" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O224" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="225" spans="1:15">
+    </row>
+    <row r="225" spans="1:13">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>7,300</t>
+          <t>7300</t>
         </is>
       </c>
       <c r="B225" s="1" t="inlineStr">
@@ -15392,13 +13430,11 @@
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
-    </row>
-    <row r="226" spans="1:15">
+    </row>
+    <row r="226" spans="1:13">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>7,302</t>
+          <t>7302</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
@@ -15461,18 +13497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N226" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O226" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="227" spans="1:15">
+    </row>
+    <row r="227" spans="1:13">
       <c r="A227" s="3"/>
       <c r="B227" s="3" t="inlineStr">
         <is>
@@ -15534,18 +13560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N227" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O227" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="228" spans="1:15">
+    </row>
+    <row r="228" spans="1:13">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="inlineStr">
         <is>
@@ -15607,18 +13623,8 @@
           <t>-1,902</t>
         </is>
       </c>
-      <c r="N228" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O228" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="230" spans="1:15">
+    </row>
+    <row r="230" spans="1:13">
       <c r="A230" s="4"/>
       <c r="B230" s="4" t="inlineStr">
         <is>
@@ -15678,16 +13684,6 @@
       <c r="M230" s="4" t="inlineStr">
         <is>
           <t>-23,454</t>
-        </is>
-      </c>
-      <c r="N230" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O230" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
